--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value250.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value250.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.270907335696083</v>
+        <v>1.218995928764343</v>
       </c>
       <c r="B1">
-        <v>1.244076475404995</v>
+        <v>2.233052492141724</v>
       </c>
       <c r="C1">
-        <v>1.289767564096937</v>
+        <v>2.986017942428589</v>
       </c>
       <c r="D1">
-        <v>1.726437927732647</v>
+        <v>3.469530344009399</v>
       </c>
       <c r="E1">
-        <v>2.929303048238963</v>
+        <v>1.672581553459167</v>
       </c>
     </row>
   </sheetData>
